--- a/Data_frame/balancos_definitivos/FLCL6.xlsx
+++ b/Data_frame/balancos_definitivos/FLCL6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BG80"/>
+  <dimension ref="A1:AV80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -651,80 +651,25 @@
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>30/09/2020</t>
+          <t>30/06/2023</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>31/03/2021</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>30/06/2021</t>
+          <t>31/03/2024</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2021</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2021</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2022</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2022</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2022</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2022</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2023</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2023</t>
-        </is>
-      </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2023</t>
-        </is>
-      </c>
-      <c r="BE1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2023</t>
-        </is>
-      </c>
-      <c r="BF1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2024</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>30/06/2024</t>
         </is>
@@ -863,51 +808,18 @@
         <v>399960.992</v>
       </c>
       <c r="AR2" t="n">
-        <v>109296</v>
+        <v>1764884.992</v>
       </c>
       <c r="AS2" t="n">
-        <v>529067.008</v>
+        <v>1753421.952</v>
       </c>
       <c r="AT2" t="n">
-        <v>520383.008</v>
+        <v>1877030.016</v>
       </c>
       <c r="AU2" t="n">
-        <v>501975.008</v>
+        <v>1899712</v>
       </c>
       <c r="AV2" t="n">
-        <v>495670.016</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>472295.008</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>454376.992</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>445078.016</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>436436.992</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>430696</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>422750.016</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>422664</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>433943.008</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>1877030.016</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>1899712</v>
-      </c>
-      <c r="BG2" t="n">
         <v>1978425.984</v>
       </c>
     </row>
@@ -1044,51 +956,18 @@
         <v>166102</v>
       </c>
       <c r="AR3" t="n">
-        <v>88136</v>
+        <v>565020.032</v>
       </c>
       <c r="AS3" t="n">
-        <v>506654.016</v>
+        <v>543358.0159999999</v>
       </c>
       <c r="AT3" t="n">
-        <v>495344</v>
+        <v>621278.0159999999</v>
       </c>
       <c r="AU3" t="n">
-        <v>467955.008</v>
+        <v>607585.024</v>
       </c>
       <c r="AV3" t="n">
-        <v>448449.984</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>418704.992</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>396031.008</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>381320</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>367676</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>357012.992</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>345345.984</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>342452</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>321103.008</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>621278.0159999999</v>
-      </c>
-      <c r="BF3" t="n">
-        <v>607585.024</v>
-      </c>
-      <c r="BG3" t="n">
         <v>632769.9840000001</v>
       </c>
     </row>
@@ -1225,51 +1104,18 @@
         <v>50460</v>
       </c>
       <c r="AR4" t="n">
-        <v>57616</v>
+        <v>109142</v>
       </c>
       <c r="AS4" t="n">
-        <v>486707.008</v>
+        <v>24064</v>
       </c>
       <c r="AT4" t="n">
-        <v>474262.016</v>
+        <v>41806</v>
       </c>
       <c r="AU4" t="n">
-        <v>433904.992</v>
+        <v>31687</v>
       </c>
       <c r="AV4" t="n">
-        <v>406864.992</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>382542.016</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>357670.016</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>335070.016</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>321680.992</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>309097.984</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>301244</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>294388</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>273004.992</v>
-      </c>
-      <c r="BE4" t="n">
-        <v>41806</v>
-      </c>
-      <c r="BF4" t="n">
-        <v>31687</v>
-      </c>
-      <c r="BG4" t="n">
         <v>33134</v>
       </c>
     </row>
@@ -1406,51 +1252,18 @@
         <v>18203</v>
       </c>
       <c r="AR5" t="n">
-        <v>26752</v>
+        <v>97070</v>
       </c>
       <c r="AS5" t="n">
-        <v>16316</v>
+        <v>127623</v>
       </c>
       <c r="AT5" t="n">
-        <v>16316</v>
+        <v>173876</v>
       </c>
       <c r="AU5" t="n">
-        <v>14562</v>
+        <v>196470</v>
       </c>
       <c r="AV5" t="n">
-        <v>12956</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>9193</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>7589</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>7302</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>7299</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE5" t="n">
-        <v>173876</v>
-      </c>
-      <c r="BF5" t="n">
-        <v>196470</v>
-      </c>
-      <c r="BG5" t="n">
         <v>241072</v>
       </c>
     </row>
@@ -1587,51 +1400,18 @@
         <v>70444</v>
       </c>
       <c r="AR6" t="n">
-        <v>0</v>
+        <v>160935.008</v>
       </c>
       <c r="AS6" t="n">
-        <v>0</v>
+        <v>172732.992</v>
       </c>
       <c r="AT6" t="n">
-        <v>0</v>
+        <v>189551.008</v>
       </c>
       <c r="AU6" t="n">
-        <v>4090</v>
+        <v>204136.992</v>
       </c>
       <c r="AV6" t="n">
-        <v>11129</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>16001</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>19562</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>22223</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>22399</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>20774</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>21215</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>23998</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>25037</v>
-      </c>
-      <c r="BE6" t="n">
-        <v>189551.008</v>
-      </c>
-      <c r="BF6" t="n">
-        <v>204136.992</v>
-      </c>
-      <c r="BG6" t="n">
         <v>180736</v>
       </c>
     </row>
@@ -1768,51 +1548,18 @@
         <v>1084</v>
       </c>
       <c r="AR7" t="n">
-        <v>0</v>
+        <v>4536</v>
       </c>
       <c r="AS7" t="n">
-        <v>0</v>
+        <v>4155</v>
       </c>
       <c r="AT7" t="n">
-        <v>0</v>
+        <v>4030</v>
       </c>
       <c r="AU7" t="n">
-        <v>0</v>
+        <v>3891</v>
       </c>
       <c r="AV7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE7" t="n">
-        <v>4030</v>
-      </c>
-      <c r="BF7" t="n">
-        <v>3891</v>
-      </c>
-      <c r="BG7" t="n">
         <v>3657</v>
       </c>
     </row>
@@ -1963,39 +1710,6 @@
       <c r="AV8" t="n">
         <v>0</v>
       </c>
-      <c r="AW8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG8" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2130,51 +1844,18 @@
         <v>9113</v>
       </c>
       <c r="AR9" t="n">
-        <v>3576</v>
+        <v>85728</v>
       </c>
       <c r="AS9" t="n">
-        <v>3378</v>
+        <v>121020</v>
       </c>
       <c r="AT9" t="n">
-        <v>3352</v>
+        <v>121916</v>
       </c>
       <c r="AU9" t="n">
-        <v>5116</v>
+        <v>94314</v>
       </c>
       <c r="AV9" t="n">
-        <v>5218</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>7690</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>7320</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>9242</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>8432</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>8247</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>7062</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>10092</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>7546</v>
-      </c>
-      <c r="BE9" t="n">
-        <v>121916</v>
-      </c>
-      <c r="BF9" t="n">
-        <v>94314</v>
-      </c>
-      <c r="BG9" t="n">
         <v>96066</v>
       </c>
     </row>
@@ -2311,51 +1992,18 @@
         <v>297</v>
       </c>
       <c r="AR10" t="n">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="AT10" t="n">
-        <v>754</v>
+        <v>0</v>
       </c>
       <c r="AU10" t="n">
-        <v>2598</v>
+        <v>0</v>
       </c>
       <c r="AV10" t="n">
-        <v>4077</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>3119</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>3764</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>6216</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>6844</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>11425</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>8340</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>6535</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>7552</v>
-      </c>
-      <c r="BE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2492,51 +2140,18 @@
         <v>16501</v>
       </c>
       <c r="AR11" t="n">
-        <v>51</v>
+        <v>107609</v>
       </c>
       <c r="AS11" t="n">
-        <v>146</v>
+        <v>93763</v>
       </c>
       <c r="AT11" t="n">
-        <v>660</v>
+        <v>90099</v>
       </c>
       <c r="AU11" t="n">
-        <v>7684</v>
+        <v>77086</v>
       </c>
       <c r="AV11" t="n">
-        <v>8205</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>160</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>126</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>1267</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>1021</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>7469</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>7485</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>7439</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>7963</v>
-      </c>
-      <c r="BE11" t="n">
-        <v>90099</v>
-      </c>
-      <c r="BF11" t="n">
-        <v>77086</v>
-      </c>
-      <c r="BG11" t="n">
         <v>78105</v>
       </c>
     </row>
@@ -2673,51 +2288,18 @@
         <v>174204.992</v>
       </c>
       <c r="AR12" t="n">
-        <v>333</v>
+        <v>417832</v>
       </c>
       <c r="AS12" t="n">
-        <v>333</v>
+        <v>380048</v>
       </c>
       <c r="AT12" t="n">
-        <v>333</v>
+        <v>399105.984</v>
       </c>
       <c r="AU12" t="n">
-        <v>333</v>
+        <v>429912.992</v>
       </c>
       <c r="AV12" t="n">
-        <v>333</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>443</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>443</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>333</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>333</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>339</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>341</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>343</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>344</v>
-      </c>
-      <c r="BE12" t="n">
-        <v>399105.984</v>
-      </c>
-      <c r="BF12" t="n">
-        <v>429912.992</v>
-      </c>
-      <c r="BG12" t="n">
         <v>446836</v>
       </c>
     </row>
@@ -2854,51 +2436,18 @@
         <v>500</v>
       </c>
       <c r="AR13" t="n">
-        <v>333</v>
+        <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>333</v>
+        <v>0</v>
       </c>
       <c r="AT13" t="n">
-        <v>333</v>
+        <v>0</v>
       </c>
       <c r="AU13" t="n">
-        <v>333</v>
+        <v>0</v>
       </c>
       <c r="AV13" t="n">
-        <v>333</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>333</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>333</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>333</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>333</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>339</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>341</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>343</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>344</v>
-      </c>
-      <c r="BE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3049,39 +2598,6 @@
       <c r="AV14" t="n">
         <v>0</v>
       </c>
-      <c r="AW14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG14" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3230,39 +2746,6 @@
       <c r="AV15" t="n">
         <v>0</v>
       </c>
-      <c r="AW15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG15" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3397,51 +2880,18 @@
         <v>0</v>
       </c>
       <c r="AR16" t="n">
-        <v>0</v>
+        <v>46787</v>
       </c>
       <c r="AS16" t="n">
-        <v>0</v>
+        <v>48747</v>
       </c>
       <c r="AT16" t="n">
-        <v>0</v>
+        <v>51288</v>
       </c>
       <c r="AU16" t="n">
-        <v>0</v>
+        <v>53209</v>
       </c>
       <c r="AV16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE16" t="n">
-        <v>51288</v>
-      </c>
-      <c r="BF16" t="n">
-        <v>53209</v>
-      </c>
-      <c r="BG16" t="n">
         <v>55085</v>
       </c>
     </row>
@@ -3592,39 +3042,6 @@
       <c r="AV17" t="n">
         <v>0</v>
       </c>
-      <c r="AW17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG17" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3773,39 +3190,6 @@
       <c r="AV18" t="n">
         <v>0</v>
       </c>
-      <c r="AW18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG18" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3954,39 +3338,6 @@
       <c r="AV19" t="n">
         <v>0</v>
       </c>
-      <c r="AW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG19" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4135,39 +3486,6 @@
       <c r="AV20" t="n">
         <v>0</v>
       </c>
-      <c r="AW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG20" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4316,39 +3634,6 @@
       <c r="AV21" t="n">
         <v>0</v>
       </c>
-      <c r="AW21" t="n">
-        <v>110</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>110</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG21" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4483,51 +3768,18 @@
         <v>2024</v>
       </c>
       <c r="AR22" t="n">
-        <v>0</v>
+        <v>1822</v>
       </c>
       <c r="AS22" t="n">
-        <v>0</v>
+        <v>1695</v>
       </c>
       <c r="AT22" t="n">
-        <v>0</v>
+        <v>1695</v>
       </c>
       <c r="AU22" t="n">
-        <v>0</v>
+        <v>1714</v>
       </c>
       <c r="AV22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE22" t="n">
-        <v>1695</v>
-      </c>
-      <c r="BF22" t="n">
-        <v>1714</v>
-      </c>
-      <c r="BG22" t="n">
         <v>1768</v>
       </c>
     </row>
@@ -4664,51 +3916,18 @@
         <v>0</v>
       </c>
       <c r="AR23" t="n">
-        <v>4157</v>
+        <v>14983</v>
       </c>
       <c r="AS23" t="n">
-        <v>4343</v>
+        <v>14668</v>
       </c>
       <c r="AT23" t="n">
-        <v>4563</v>
+        <v>14502</v>
       </c>
       <c r="AU23" t="n">
-        <v>5249</v>
+        <v>15272</v>
       </c>
       <c r="AV23" t="n">
-        <v>11198</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>10580</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>9374</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>9017</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>8326</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>7927</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>7339</v>
-      </c>
-      <c r="BC23" t="n">
-        <v>6779</v>
-      </c>
-      <c r="BD23" t="n">
-        <v>7919</v>
-      </c>
-      <c r="BE23" t="n">
-        <v>14502</v>
-      </c>
-      <c r="BF23" t="n">
-        <v>15272</v>
-      </c>
-      <c r="BG23" t="n">
         <v>15739</v>
       </c>
     </row>
@@ -4845,51 +4064,18 @@
         <v>57630</v>
       </c>
       <c r="AR24" t="n">
-        <v>16670</v>
+        <v>765228.032</v>
       </c>
       <c r="AS24" t="n">
-        <v>17737</v>
+        <v>813652.992</v>
       </c>
       <c r="AT24" t="n">
-        <v>20143</v>
+        <v>840449.024</v>
       </c>
       <c r="AU24" t="n">
-        <v>28438</v>
+        <v>845228.032</v>
       </c>
       <c r="AV24" t="n">
-        <v>35689</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>42567</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>48529</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>54408</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>60102</v>
-      </c>
-      <c r="BA24" t="n">
-        <v>65417</v>
-      </c>
-      <c r="BB24" t="n">
-        <v>69724</v>
-      </c>
-      <c r="BC24" t="n">
-        <v>73090</v>
-      </c>
-      <c r="BD24" t="n">
-        <v>104577</v>
-      </c>
-      <c r="BE24" t="n">
-        <v>840449.024</v>
-      </c>
-      <c r="BF24" t="n">
-        <v>845228.032</v>
-      </c>
-      <c r="BG24" t="n">
         <v>881313.024</v>
       </c>
     </row>
@@ -5040,39 +4226,6 @@
       <c r="AV25" t="n">
         <v>0</v>
       </c>
-      <c r="AW25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG25" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5207,51 +4360,18 @@
         <v>399960.992</v>
       </c>
       <c r="AR26" t="n">
-        <v>109296</v>
+        <v>1764884.992</v>
       </c>
       <c r="AS26" t="n">
-        <v>529067.008</v>
+        <v>1753421.952</v>
       </c>
       <c r="AT26" t="n">
-        <v>520383.008</v>
+        <v>1877030.016</v>
       </c>
       <c r="AU26" t="n">
-        <v>501975.008</v>
+        <v>1899712</v>
       </c>
       <c r="AV26" t="n">
-        <v>495670.016</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>472295.008</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>454376.992</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>445078.016</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>436436.992</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>430696</v>
-      </c>
-      <c r="BB26" t="n">
-        <v>422750.016</v>
-      </c>
-      <c r="BC26" t="n">
-        <v>422664</v>
-      </c>
-      <c r="BD26" t="n">
-        <v>433943.008</v>
-      </c>
-      <c r="BE26" t="n">
-        <v>1877030.016</v>
-      </c>
-      <c r="BF26" t="n">
-        <v>1899712</v>
-      </c>
-      <c r="BG26" t="n">
         <v>1978425.984</v>
       </c>
     </row>
@@ -5388,51 +4508,18 @@
         <v>134878</v>
       </c>
       <c r="AR27" t="n">
-        <v>30971</v>
+        <v>457894.016</v>
       </c>
       <c r="AS27" t="n">
-        <v>28371</v>
+        <v>535663.008</v>
       </c>
       <c r="AT27" t="n">
-        <v>33946</v>
+        <v>520932.992</v>
       </c>
       <c r="AU27" t="n">
-        <v>32122</v>
+        <v>564894.976</v>
       </c>
       <c r="AV27" t="n">
-        <v>36056</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>39417</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>45474</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>47814</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>45709</v>
-      </c>
-      <c r="BA27" t="n">
-        <v>42929</v>
-      </c>
-      <c r="BB27" t="n">
-        <v>40299</v>
-      </c>
-      <c r="BC27" t="n">
-        <v>41299</v>
-      </c>
-      <c r="BD27" t="n">
-        <v>63437</v>
-      </c>
-      <c r="BE27" t="n">
-        <v>520932.992</v>
-      </c>
-      <c r="BF27" t="n">
-        <v>564894.976</v>
-      </c>
-      <c r="BG27" t="n">
         <v>601001.9840000001</v>
       </c>
     </row>
@@ -5569,51 +4656,18 @@
         <v>0</v>
       </c>
       <c r="AR28" t="n">
-        <v>3520</v>
+        <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>3750</v>
+        <v>0</v>
       </c>
       <c r="AT28" t="n">
-        <v>6240</v>
+        <v>0</v>
       </c>
       <c r="AU28" t="n">
-        <v>9426</v>
+        <v>0</v>
       </c>
       <c r="AV28" t="n">
-        <v>12582</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>9171</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>10770</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>15258</v>
-      </c>
-      <c r="AZ28" t="n">
-        <v>15946</v>
-      </c>
-      <c r="BA28" t="n">
-        <v>12921</v>
-      </c>
-      <c r="BB28" t="n">
-        <v>12899</v>
-      </c>
-      <c r="BC28" t="n">
-        <v>12721</v>
-      </c>
-      <c r="BD28" t="n">
-        <v>21277</v>
-      </c>
-      <c r="BE28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5750,51 +4804,18 @@
         <v>31163</v>
       </c>
       <c r="AR29" t="n">
-        <v>6982</v>
+        <v>109362</v>
       </c>
       <c r="AS29" t="n">
-        <v>12460</v>
+        <v>110968</v>
       </c>
       <c r="AT29" t="n">
-        <v>13898</v>
+        <v>114593</v>
       </c>
       <c r="AU29" t="n">
-        <v>15726</v>
+        <v>109040</v>
       </c>
       <c r="AV29" t="n">
-        <v>15146</v>
-      </c>
-      <c r="AW29" t="n">
-        <v>20066</v>
-      </c>
-      <c r="AX29" t="n">
-        <v>18544</v>
-      </c>
-      <c r="AY29" t="n">
-        <v>18552</v>
-      </c>
-      <c r="AZ29" t="n">
-        <v>15907</v>
-      </c>
-      <c r="BA29" t="n">
-        <v>15715</v>
-      </c>
-      <c r="BB29" t="n">
-        <v>13613</v>
-      </c>
-      <c r="BC29" t="n">
-        <v>15451</v>
-      </c>
-      <c r="BD29" t="n">
-        <v>25850</v>
-      </c>
-      <c r="BE29" t="n">
-        <v>114593</v>
-      </c>
-      <c r="BF29" t="n">
-        <v>109040</v>
-      </c>
-      <c r="BG29" t="n">
         <v>111304</v>
       </c>
     </row>
@@ -5931,51 +4952,18 @@
         <v>0</v>
       </c>
       <c r="AR30" t="n">
-        <v>3741</v>
+        <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1183</v>
+        <v>0</v>
       </c>
       <c r="AT30" t="n">
-        <v>960</v>
+        <v>0</v>
       </c>
       <c r="AU30" t="n">
-        <v>571</v>
+        <v>0</v>
       </c>
       <c r="AV30" t="n">
-        <v>320</v>
-      </c>
-      <c r="AW30" t="n">
-        <v>347</v>
-      </c>
-      <c r="AX30" t="n">
-        <v>649</v>
-      </c>
-      <c r="AY30" t="n">
-        <v>424</v>
-      </c>
-      <c r="AZ30" t="n">
-        <v>427</v>
-      </c>
-      <c r="BA30" t="n">
-        <v>645</v>
-      </c>
-      <c r="BB30" t="n">
-        <v>1043</v>
-      </c>
-      <c r="BC30" t="n">
-        <v>1103</v>
-      </c>
-      <c r="BD30" t="n">
-        <v>1478</v>
-      </c>
-      <c r="BE30" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF30" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6112,51 +5100,18 @@
         <v>43181</v>
       </c>
       <c r="AR31" t="n">
-        <v>3707</v>
+        <v>230540</v>
       </c>
       <c r="AS31" t="n">
-        <v>0</v>
+        <v>242451.008</v>
       </c>
       <c r="AT31" t="n">
-        <v>0</v>
+        <v>238764</v>
       </c>
       <c r="AU31" t="n">
-        <v>0</v>
+        <v>279960.992</v>
       </c>
       <c r="AV31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE31" t="n">
-        <v>238764</v>
-      </c>
-      <c r="BF31" t="n">
-        <v>279960.992</v>
-      </c>
-      <c r="BG31" t="n">
         <v>297556.992</v>
       </c>
     </row>
@@ -6307,39 +5262,6 @@
       <c r="AV32" t="n">
         <v>0</v>
       </c>
-      <c r="AW32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG32" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -6483,42 +5405,9 @@
         <v>0</v>
       </c>
       <c r="AU33" t="n">
-        <v>0</v>
+        <v>38932</v>
       </c>
       <c r="AV33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF33" t="n">
-        <v>38932</v>
-      </c>
-      <c r="BG33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6655,51 +5544,18 @@
         <v>53532</v>
       </c>
       <c r="AR34" t="n">
-        <v>13021</v>
+        <v>117992</v>
       </c>
       <c r="AS34" t="n">
-        <v>10978</v>
+        <v>182244</v>
       </c>
       <c r="AT34" t="n">
-        <v>12848</v>
+        <v>167576</v>
       </c>
       <c r="AU34" t="n">
-        <v>6399</v>
+        <v>136962</v>
       </c>
       <c r="AV34" t="n">
-        <v>8008</v>
-      </c>
-      <c r="AW34" t="n">
-        <v>9833</v>
-      </c>
-      <c r="AX34" t="n">
-        <v>15511</v>
-      </c>
-      <c r="AY34" t="n">
-        <v>13580</v>
-      </c>
-      <c r="AZ34" t="n">
-        <v>13429</v>
-      </c>
-      <c r="BA34" t="n">
-        <v>13648</v>
-      </c>
-      <c r="BB34" t="n">
-        <v>12744</v>
-      </c>
-      <c r="BC34" t="n">
-        <v>12024</v>
-      </c>
-      <c r="BD34" t="n">
-        <v>14832</v>
-      </c>
-      <c r="BE34" t="n">
-        <v>167576</v>
-      </c>
-      <c r="BF34" t="n">
-        <v>136962</v>
-      </c>
-      <c r="BG34" t="n">
         <v>192140.992</v>
       </c>
     </row>
@@ -6850,39 +5706,6 @@
       <c r="AV35" t="n">
         <v>0</v>
       </c>
-      <c r="AW35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG35" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7031,39 +5854,6 @@
       <c r="AV36" t="n">
         <v>0</v>
       </c>
-      <c r="AW36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG36" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -7198,51 +5988,18 @@
         <v>192163.008</v>
       </c>
       <c r="AR37" t="n">
-        <v>5473</v>
+        <v>969848</v>
       </c>
       <c r="AS37" t="n">
-        <v>3553</v>
+        <v>859089.024</v>
       </c>
       <c r="AT37" t="n">
-        <v>3516</v>
+        <v>989148.992</v>
       </c>
       <c r="AU37" t="n">
-        <v>3602</v>
+        <v>987177.9840000001</v>
       </c>
       <c r="AV37" t="n">
-        <v>8683</v>
-      </c>
-      <c r="AW37" t="n">
-        <v>8317</v>
-      </c>
-      <c r="AX37" t="n">
-        <v>7662</v>
-      </c>
-      <c r="AY37" t="n">
-        <v>7352</v>
-      </c>
-      <c r="AZ37" t="n">
-        <v>7040</v>
-      </c>
-      <c r="BA37" t="n">
-        <v>6917</v>
-      </c>
-      <c r="BB37" t="n">
-        <v>6569</v>
-      </c>
-      <c r="BC37" t="n">
-        <v>6271</v>
-      </c>
-      <c r="BD37" t="n">
-        <v>16520</v>
-      </c>
-      <c r="BE37" t="n">
-        <v>989148.992</v>
-      </c>
-      <c r="BF37" t="n">
-        <v>987177.9840000001</v>
-      </c>
-      <c r="BG37" t="n">
         <v>1019577.984</v>
       </c>
     </row>
@@ -7379,51 +6136,18 @@
         <v>172671.008</v>
       </c>
       <c r="AR38" t="n">
-        <v>1833</v>
+        <v>604003.968</v>
       </c>
       <c r="AS38" t="n">
-        <v>0</v>
+        <v>583497.024</v>
       </c>
       <c r="AT38" t="n">
-        <v>0</v>
+        <v>670142.0159999999</v>
       </c>
       <c r="AU38" t="n">
-        <v>0</v>
+        <v>650502.976</v>
       </c>
       <c r="AV38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ38" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA38" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB38" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC38" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD38" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE38" t="n">
-        <v>670142.0159999999</v>
-      </c>
-      <c r="BF38" t="n">
-        <v>650502.976</v>
-      </c>
-      <c r="BG38" t="n">
         <v>745385.9840000001</v>
       </c>
     </row>
@@ -7574,39 +6298,6 @@
       <c r="AV39" t="n">
         <v>0</v>
       </c>
-      <c r="AW39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG39" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -7741,51 +6432,18 @@
         <v>19492</v>
       </c>
       <c r="AR40" t="n">
-        <v>1363</v>
+        <v>365844</v>
       </c>
       <c r="AS40" t="n">
-        <v>1188</v>
+        <v>268379.008</v>
       </c>
       <c r="AT40" t="n">
-        <v>1010</v>
+        <v>319007.008</v>
       </c>
       <c r="AU40" t="n">
-        <v>829</v>
+        <v>320835.008</v>
       </c>
       <c r="AV40" t="n">
-        <v>5756</v>
-      </c>
-      <c r="AW40" t="n">
-        <v>5605</v>
-      </c>
-      <c r="AX40" t="n">
-        <v>4812</v>
-      </c>
-      <c r="AY40" t="n">
-        <v>4425</v>
-      </c>
-      <c r="AZ40" t="n">
-        <v>3992</v>
-      </c>
-      <c r="BA40" t="n">
-        <v>3532</v>
-      </c>
-      <c r="BB40" t="n">
-        <v>3065</v>
-      </c>
-      <c r="BC40" t="n">
-        <v>2617</v>
-      </c>
-      <c r="BD40" t="n">
-        <v>6052</v>
-      </c>
-      <c r="BE40" t="n">
-        <v>319007.008</v>
-      </c>
-      <c r="BF40" t="n">
-        <v>320835.008</v>
-      </c>
-      <c r="BG40" t="n">
         <v>249596.992</v>
       </c>
     </row>
@@ -7925,48 +6583,15 @@
         <v>0</v>
       </c>
       <c r="AS41" t="n">
-        <v>0</v>
+        <v>4586</v>
       </c>
       <c r="AT41" t="n">
         <v>0</v>
       </c>
       <c r="AU41" t="n">
-        <v>0</v>
+        <v>13640</v>
       </c>
       <c r="AV41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD41" t="n">
-        <v>6257</v>
-      </c>
-      <c r="BE41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF41" t="n">
-        <v>13640</v>
-      </c>
-      <c r="BG41" t="n">
         <v>22480</v>
       </c>
     </row>
@@ -8117,39 +6742,6 @@
       <c r="AV42" t="n">
         <v>0</v>
       </c>
-      <c r="AW42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG42" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -8284,51 +6876,18 @@
         <v>0</v>
       </c>
       <c r="AR43" t="n">
-        <v>2277</v>
+        <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>2365</v>
+        <v>2627</v>
       </c>
       <c r="AT43" t="n">
-        <v>2506</v>
+        <v>0</v>
       </c>
       <c r="AU43" t="n">
-        <v>2773</v>
+        <v>2200</v>
       </c>
       <c r="AV43" t="n">
-        <v>2927</v>
-      </c>
-      <c r="AW43" t="n">
-        <v>2712</v>
-      </c>
-      <c r="AX43" t="n">
-        <v>2850</v>
-      </c>
-      <c r="AY43" t="n">
-        <v>2927</v>
-      </c>
-      <c r="AZ43" t="n">
-        <v>3048</v>
-      </c>
-      <c r="BA43" t="n">
-        <v>3385</v>
-      </c>
-      <c r="BB43" t="n">
-        <v>3504</v>
-      </c>
-      <c r="BC43" t="n">
-        <v>3654</v>
-      </c>
-      <c r="BD43" t="n">
-        <v>4211</v>
-      </c>
-      <c r="BE43" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF43" t="n">
-        <v>2200</v>
-      </c>
-      <c r="BG43" t="n">
         <v>2115</v>
       </c>
     </row>
@@ -8479,39 +7038,6 @@
       <c r="AV44" t="n">
         <v>0</v>
       </c>
-      <c r="AW44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG44" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -8660,39 +7186,6 @@
       <c r="AV45" t="n">
         <v>0</v>
       </c>
-      <c r="AW45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG45" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -8841,39 +7334,6 @@
       <c r="AV46" t="n">
         <v>0</v>
       </c>
-      <c r="AW46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG46" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -9008,51 +7468,18 @@
         <v>72920</v>
       </c>
       <c r="AR47" t="n">
-        <v>72852</v>
+        <v>337143.008</v>
       </c>
       <c r="AS47" t="n">
-        <v>497143.008</v>
+        <v>358670.016</v>
       </c>
       <c r="AT47" t="n">
-        <v>482920.992</v>
+        <v>366948</v>
       </c>
       <c r="AU47" t="n">
-        <v>466251.008</v>
+        <v>347639.008</v>
       </c>
       <c r="AV47" t="n">
-        <v>450931.008</v>
-      </c>
-      <c r="AW47" t="n">
-        <v>424560.992</v>
-      </c>
-      <c r="AX47" t="n">
-        <v>401240.992</v>
-      </c>
-      <c r="AY47" t="n">
-        <v>389912</v>
-      </c>
-      <c r="AZ47" t="n">
-        <v>383688</v>
-      </c>
-      <c r="BA47" t="n">
-        <v>380849.984</v>
-      </c>
-      <c r="BB47" t="n">
-        <v>375881.984</v>
-      </c>
-      <c r="BC47" t="n">
-        <v>375094.016</v>
-      </c>
-      <c r="BD47" t="n">
-        <v>353985.984</v>
-      </c>
-      <c r="BE47" t="n">
-        <v>366948</v>
-      </c>
-      <c r="BF47" t="n">
-        <v>347639.008</v>
-      </c>
-      <c r="BG47" t="n">
         <v>357846.016</v>
       </c>
     </row>
@@ -9189,51 +7616,18 @@
         <v>44171</v>
       </c>
       <c r="AR48" t="n">
-        <v>159766</v>
+        <v>312022.016</v>
       </c>
       <c r="AS48" t="n">
-        <v>591372.992</v>
+        <v>312022.016</v>
       </c>
       <c r="AT48" t="n">
-        <v>590241.024</v>
+        <v>312022.016</v>
       </c>
       <c r="AU48" t="n">
-        <v>591505.9840000001</v>
+        <v>312022.016</v>
       </c>
       <c r="AV48" t="n">
-        <v>591505.9840000001</v>
-      </c>
-      <c r="AW48" t="n">
-        <v>591505.9840000001</v>
-      </c>
-      <c r="AX48" t="n">
-        <v>591505.9840000001</v>
-      </c>
-      <c r="AY48" t="n">
-        <v>591774.976</v>
-      </c>
-      <c r="AZ48" t="n">
-        <v>592771.968</v>
-      </c>
-      <c r="BA48" t="n">
-        <v>592771.968</v>
-      </c>
-      <c r="BB48" t="n">
-        <v>592771.968</v>
-      </c>
-      <c r="BC48" t="n">
-        <v>594036.992</v>
-      </c>
-      <c r="BD48" t="n">
-        <v>594036.992</v>
-      </c>
-      <c r="BE48" t="n">
-        <v>312022.016</v>
-      </c>
-      <c r="BF48" t="n">
-        <v>312022.016</v>
-      </c>
-      <c r="BG48" t="n">
         <v>312022.016</v>
       </c>
     </row>
@@ -9370,51 +7764,18 @@
         <v>7921</v>
       </c>
       <c r="AR49" t="n">
-        <v>0</v>
+        <v>9291</v>
       </c>
       <c r="AS49" t="n">
-        <v>11540</v>
+        <v>9392</v>
       </c>
       <c r="AT49" t="n">
-        <v>30225</v>
+        <v>9532</v>
       </c>
       <c r="AU49" t="n">
-        <v>42330</v>
+        <v>9437</v>
       </c>
       <c r="AV49" t="n">
-        <v>50266</v>
-      </c>
-      <c r="AW49" t="n">
-        <v>57610</v>
-      </c>
-      <c r="AX49" t="n">
-        <v>65415</v>
-      </c>
-      <c r="AY49" t="n">
-        <v>71909</v>
-      </c>
-      <c r="AZ49" t="n">
-        <v>74867</v>
-      </c>
-      <c r="BA49" t="n">
-        <v>79148</v>
-      </c>
-      <c r="BB49" t="n">
-        <v>83208</v>
-      </c>
-      <c r="BC49" t="n">
-        <v>86020</v>
-      </c>
-      <c r="BD49" t="n">
-        <v>87964</v>
-      </c>
-      <c r="BE49" t="n">
-        <v>9532</v>
-      </c>
-      <c r="BF49" t="n">
-        <v>9437</v>
-      </c>
-      <c r="BG49" t="n">
         <v>9123</v>
       </c>
     </row>
@@ -9565,39 +7926,6 @@
       <c r="AV50" t="n">
         <v>0</v>
       </c>
-      <c r="AW50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG50" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -9732,51 +8060,18 @@
         <v>8833</v>
       </c>
       <c r="AR51" t="n">
-        <v>0</v>
+        <v>11092</v>
       </c>
       <c r="AS51" t="n">
-        <v>0</v>
+        <v>11092</v>
       </c>
       <c r="AT51" t="n">
-        <v>0</v>
+        <v>54256</v>
       </c>
       <c r="AU51" t="n">
-        <v>0</v>
+        <v>15324</v>
       </c>
       <c r="AV51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ51" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA51" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB51" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC51" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD51" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE51" t="n">
-        <v>54256</v>
-      </c>
-      <c r="BF51" t="n">
-        <v>15324</v>
-      </c>
-      <c r="BG51" t="n">
         <v>15324</v>
       </c>
     </row>
@@ -9913,51 +8208,18 @@
         <v>11995</v>
       </c>
       <c r="AR52" t="n">
-        <v>-86914</v>
+        <v>4185</v>
       </c>
       <c r="AS52" t="n">
-        <v>-105770</v>
+        <v>25611</v>
       </c>
       <c r="AT52" t="n">
-        <v>-137544.992</v>
+        <v>0</v>
       </c>
       <c r="AU52" t="n">
-        <v>-167584.992</v>
+        <v>19718</v>
       </c>
       <c r="AV52" t="n">
-        <v>-190840.992</v>
-      </c>
-      <c r="AW52" t="n">
-        <v>-224555.008</v>
-      </c>
-      <c r="AX52" t="n">
-        <v>-255680</v>
-      </c>
-      <c r="AY52" t="n">
-        <v>-273772</v>
-      </c>
-      <c r="AZ52" t="n">
-        <v>-283951.008</v>
-      </c>
-      <c r="BA52" t="n">
-        <v>-291070.016</v>
-      </c>
-      <c r="BB52" t="n">
-        <v>-300097.984</v>
-      </c>
-      <c r="BC52" t="n">
-        <v>-304963.008</v>
-      </c>
-      <c r="BD52" t="n">
-        <v>-328015.008</v>
-      </c>
-      <c r="BE52" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF52" t="n">
-        <v>19718</v>
-      </c>
-      <c r="BG52" t="n">
         <v>30239</v>
       </c>
     </row>
@@ -10108,39 +8370,6 @@
       <c r="AV53" t="n">
         <v>0</v>
       </c>
-      <c r="AW53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG53" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -10289,39 +8518,6 @@
       <c r="AV54" t="n">
         <v>0</v>
       </c>
-      <c r="AW54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG54" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -10456,51 +8652,18 @@
         <v>0</v>
       </c>
       <c r="AR55" t="n">
-        <v>0</v>
+        <v>553</v>
       </c>
       <c r="AS55" t="n">
-        <v>0</v>
+        <v>553</v>
       </c>
       <c r="AT55" t="n">
-        <v>0</v>
+        <v>-8862</v>
       </c>
       <c r="AU55" t="n">
-        <v>0</v>
+        <v>-8862</v>
       </c>
       <c r="AV55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE55" t="n">
-        <v>-8862</v>
-      </c>
-      <c r="BF55" t="n">
-        <v>-8862</v>
-      </c>
-      <c r="BG55" t="n">
         <v>-8862</v>
       </c>
     </row>
@@ -10649,39 +8812,6 @@
         <v>0</v>
       </c>
       <c r="AV56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10818,17 +8948,6 @@
       <c r="AT57" t="inlineStr"/>
       <c r="AU57" t="inlineStr"/>
       <c r="AV57" t="inlineStr"/>
-      <c r="AW57" t="inlineStr"/>
-      <c r="AX57" t="inlineStr"/>
-      <c r="AY57" t="inlineStr"/>
-      <c r="AZ57" t="inlineStr"/>
-      <c r="BA57" t="inlineStr"/>
-      <c r="BB57" t="inlineStr"/>
-      <c r="BC57" t="inlineStr"/>
-      <c r="BD57" t="inlineStr"/>
-      <c r="BE57" t="inlineStr"/>
-      <c r="BF57" t="inlineStr"/>
-      <c r="BG57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -10963,17 +9082,6 @@
       <c r="AT58" t="inlineStr"/>
       <c r="AU58" t="inlineStr"/>
       <c r="AV58" t="inlineStr"/>
-      <c r="AW58" t="inlineStr"/>
-      <c r="AX58" t="inlineStr"/>
-      <c r="AY58" t="inlineStr"/>
-      <c r="AZ58" t="inlineStr"/>
-      <c r="BA58" t="inlineStr"/>
-      <c r="BB58" t="inlineStr"/>
-      <c r="BC58" t="inlineStr"/>
-      <c r="BD58" t="inlineStr"/>
-      <c r="BE58" t="inlineStr"/>
-      <c r="BF58" t="inlineStr"/>
-      <c r="BG58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -11104,49 +9212,16 @@
         <v>105965</v>
       </c>
       <c r="AR59" t="n">
-        <v>22378</v>
+        <v>290739.008</v>
       </c>
       <c r="AS59" t="n">
-        <v>28624</v>
-      </c>
-      <c r="AT59" t="n">
-        <v>24234</v>
-      </c>
+        <v>338639.008</v>
+      </c>
+      <c r="AT59" t="inlineStr"/>
       <c r="AU59" t="n">
-        <v>26451</v>
+        <v>319155.008</v>
       </c>
       <c r="AV59" t="n">
-        <v>25913</v>
-      </c>
-      <c r="AW59" t="n">
-        <v>29542</v>
-      </c>
-      <c r="AX59" t="n">
-        <v>30495</v>
-      </c>
-      <c r="AY59" t="n">
-        <v>37519</v>
-      </c>
-      <c r="AZ59" t="n">
-        <v>36687</v>
-      </c>
-      <c r="BA59" t="n">
-        <v>34199.992</v>
-      </c>
-      <c r="BB59" t="n">
-        <v>35867</v>
-      </c>
-      <c r="BC59" t="n">
-        <v>40083</v>
-      </c>
-      <c r="BD59" t="n">
-        <v>54889</v>
-      </c>
-      <c r="BE59" t="inlineStr"/>
-      <c r="BF59" t="n">
-        <v>319155.008</v>
-      </c>
-      <c r="BG59" t="n">
         <v>332211.008</v>
       </c>
     </row>
@@ -11279,49 +9354,16 @@
         <v>-70942</v>
       </c>
       <c r="AR60" t="n">
-        <v>-14565</v>
+        <v>-249383.008</v>
       </c>
       <c r="AS60" t="n">
-        <v>-19280</v>
-      </c>
-      <c r="AT60" t="n">
-        <v>-17391</v>
-      </c>
+        <v>-267252.992</v>
+      </c>
+      <c r="AT60" t="inlineStr"/>
       <c r="AU60" t="n">
-        <v>-20365</v>
+        <v>-240330</v>
       </c>
       <c r="AV60" t="n">
-        <v>-18807</v>
-      </c>
-      <c r="AW60" t="n">
-        <v>-21805</v>
-      </c>
-      <c r="AX60" t="n">
-        <v>-20979</v>
-      </c>
-      <c r="AY60" t="n">
-        <v>-24234</v>
-      </c>
-      <c r="AZ60" t="n">
-        <v>-23505</v>
-      </c>
-      <c r="BA60" t="n">
-        <v>-21506</v>
-      </c>
-      <c r="BB60" t="n">
-        <v>-19899</v>
-      </c>
-      <c r="BC60" t="n">
-        <v>-19786</v>
-      </c>
-      <c r="BD60" t="n">
-        <v>-27687</v>
-      </c>
-      <c r="BE60" t="inlineStr"/>
-      <c r="BF60" t="n">
-        <v>-240330</v>
-      </c>
-      <c r="BG60" t="n">
         <v>-269636.992</v>
       </c>
     </row>
@@ -11454,49 +9496,16 @@
         <v>35023</v>
       </c>
       <c r="AR61" t="n">
-        <v>7813</v>
+        <v>41356</v>
       </c>
       <c r="AS61" t="n">
-        <v>9344</v>
-      </c>
-      <c r="AT61" t="n">
-        <v>6843</v>
-      </c>
+        <v>71386</v>
+      </c>
+      <c r="AT61" t="inlineStr"/>
       <c r="AU61" t="n">
-        <v>6086</v>
+        <v>78825</v>
       </c>
       <c r="AV61" t="n">
-        <v>7106</v>
-      </c>
-      <c r="AW61" t="n">
-        <v>7737</v>
-      </c>
-      <c r="AX61" t="n">
-        <v>9516</v>
-      </c>
-      <c r="AY61" t="n">
-        <v>13285</v>
-      </c>
-      <c r="AZ61" t="n">
-        <v>13182</v>
-      </c>
-      <c r="BA61" t="n">
-        <v>12694</v>
-      </c>
-      <c r="BB61" t="n">
-        <v>15968</v>
-      </c>
-      <c r="BC61" t="n">
-        <v>20297</v>
-      </c>
-      <c r="BD61" t="n">
-        <v>27202</v>
-      </c>
-      <c r="BE61" t="inlineStr"/>
-      <c r="BF61" t="n">
-        <v>78825</v>
-      </c>
-      <c r="BG61" t="n">
         <v>62574</v>
       </c>
     </row>
@@ -11629,49 +9638,16 @@
         <v>-3333</v>
       </c>
       <c r="AR62" t="n">
-        <v>-7296</v>
+        <v>0</v>
       </c>
       <c r="AS62" t="n">
-        <v>-10151</v>
-      </c>
-      <c r="AT62" t="n">
-        <v>-9333</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AT62" t="inlineStr"/>
       <c r="AU62" t="n">
-        <v>-15102</v>
+        <v>0</v>
       </c>
       <c r="AV62" t="n">
-        <v>-12305</v>
-      </c>
-      <c r="AW62" t="n">
-        <v>-20457</v>
-      </c>
-      <c r="AX62" t="n">
-        <v>-14770</v>
-      </c>
-      <c r="AY62" t="n">
-        <v>-10448</v>
-      </c>
-      <c r="AZ62" t="n">
-        <v>-8092</v>
-      </c>
-      <c r="BA62" t="n">
-        <v>-9479</v>
-      </c>
-      <c r="BB62" t="n">
-        <v>-7956</v>
-      </c>
-      <c r="BC62" t="n">
-        <v>-9419</v>
-      </c>
-      <c r="BD62" t="n">
-        <v>-14195</v>
-      </c>
-      <c r="BE62" t="inlineStr"/>
-      <c r="BF62" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11804,49 +9780,16 @@
         <v>-9961</v>
       </c>
       <c r="AR63" t="n">
-        <v>-7507</v>
+        <v>-21604</v>
       </c>
       <c r="AS63" t="n">
-        <v>-20068</v>
-      </c>
-      <c r="AT63" t="n">
-        <v>-30107</v>
-      </c>
+        <v>-20754</v>
+      </c>
+      <c r="AT63" t="inlineStr"/>
       <c r="AU63" t="n">
-        <v>-24179</v>
+        <v>-23484</v>
       </c>
       <c r="AV63" t="n">
-        <v>-22680</v>
-      </c>
-      <c r="AW63" t="n">
-        <v>-24910</v>
-      </c>
-      <c r="AX63" t="n">
-        <v>-30085</v>
-      </c>
-      <c r="AY63" t="n">
-        <v>-26240</v>
-      </c>
-      <c r="AZ63" t="n">
-        <v>-21921</v>
-      </c>
-      <c r="BA63" t="n">
-        <v>-20921</v>
-      </c>
-      <c r="BB63" t="n">
-        <v>-22365</v>
-      </c>
-      <c r="BC63" t="n">
-        <v>-20574</v>
-      </c>
-      <c r="BD63" t="n">
-        <v>-41071</v>
-      </c>
-      <c r="BE63" t="inlineStr"/>
-      <c r="BF63" t="n">
-        <v>-23484</v>
-      </c>
-      <c r="BG63" t="n">
         <v>-24123</v>
       </c>
     </row>
@@ -11984,44 +9927,11 @@
       <c r="AS64" t="n">
         <v>0</v>
       </c>
-      <c r="AT64" t="n">
-        <v>0</v>
-      </c>
+      <c r="AT64" t="inlineStr"/>
       <c r="AU64" t="n">
         <v>0</v>
       </c>
       <c r="AV64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE64" t="inlineStr"/>
-      <c r="BF64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12154,49 +10064,16 @@
         <v>972</v>
       </c>
       <c r="AR65" t="n">
-        <v>0</v>
+        <v>653</v>
       </c>
       <c r="AS65" t="n">
-        <v>55</v>
-      </c>
-      <c r="AT65" t="n">
-        <v>0</v>
-      </c>
+        <v>814</v>
+      </c>
+      <c r="AT65" t="inlineStr"/>
       <c r="AU65" t="n">
-        <v>0</v>
+        <v>384</v>
       </c>
       <c r="AV65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW65" t="n">
-        <v>-3777</v>
-      </c>
-      <c r="AX65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ65" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA65" t="n">
-        <v>-2478</v>
-      </c>
-      <c r="BB65" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC65" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD65" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE65" t="inlineStr"/>
-      <c r="BF65" t="n">
-        <v>384</v>
-      </c>
-      <c r="BG65" t="n">
         <v>705</v>
       </c>
     </row>
@@ -12329,49 +10206,16 @@
         <v>-545</v>
       </c>
       <c r="AR66" t="n">
-        <v>-98</v>
+        <v>-1000</v>
       </c>
       <c r="AS66" t="n">
-        <v>148</v>
-      </c>
-      <c r="AT66" t="n">
-        <v>-380</v>
-      </c>
+        <v>-2212</v>
+      </c>
+      <c r="AT66" t="inlineStr"/>
       <c r="AU66" t="n">
-        <v>-254</v>
+        <v>-4828</v>
       </c>
       <c r="AV66" t="n">
-        <v>-272</v>
-      </c>
-      <c r="AW66" t="n">
-        <v>906</v>
-      </c>
-      <c r="AX66" t="n">
-        <v>-2551</v>
-      </c>
-      <c r="AY66" t="n">
-        <v>-1926</v>
-      </c>
-      <c r="AZ66" t="n">
-        <v>-1327</v>
-      </c>
-      <c r="BA66" t="n">
-        <v>5804</v>
-      </c>
-      <c r="BB66" t="n">
-        <v>-824</v>
-      </c>
-      <c r="BC66" t="n">
-        <v>-1199</v>
-      </c>
-      <c r="BD66" t="n">
-        <v>-672</v>
-      </c>
-      <c r="BE66" t="inlineStr"/>
-      <c r="BF66" t="n">
-        <v>-4828</v>
-      </c>
-      <c r="BG66" t="n">
         <v>-3436</v>
       </c>
     </row>
@@ -12509,44 +10353,11 @@
       <c r="AS67" t="n">
         <v>0</v>
       </c>
-      <c r="AT67" t="n">
-        <v>0</v>
-      </c>
+      <c r="AT67" t="inlineStr"/>
       <c r="AU67" t="n">
         <v>0</v>
       </c>
       <c r="AV67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE67" t="inlineStr"/>
-      <c r="BF67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12679,49 +10490,16 @@
         <v>-3992</v>
       </c>
       <c r="AR68" t="n">
-        <v>-1060</v>
+        <v>-15536</v>
       </c>
       <c r="AS68" t="n">
-        <v>1816</v>
-      </c>
-      <c r="AT68" t="n">
-        <v>1202</v>
-      </c>
+        <v>-17700</v>
+      </c>
+      <c r="AT68" t="inlineStr"/>
       <c r="AU68" t="n">
-        <v>3409</v>
+        <v>-21361</v>
       </c>
       <c r="AV68" t="n">
-        <v>4895</v>
-      </c>
-      <c r="AW68" t="n">
-        <v>6787</v>
-      </c>
-      <c r="AX68" t="n">
-        <v>6765</v>
-      </c>
-      <c r="AY68" t="n">
-        <v>7238</v>
-      </c>
-      <c r="AZ68" t="n">
-        <v>7978</v>
-      </c>
-      <c r="BA68" t="n">
-        <v>7261</v>
-      </c>
-      <c r="BB68" t="n">
-        <v>6149</v>
-      </c>
-      <c r="BC68" t="n">
-        <v>6029</v>
-      </c>
-      <c r="BD68" t="n">
-        <v>5685</v>
-      </c>
-      <c r="BE68" t="inlineStr"/>
-      <c r="BF68" t="n">
-        <v>-21361</v>
-      </c>
-      <c r="BG68" t="n">
         <v>-19714</v>
       </c>
     </row>
@@ -12854,49 +10632,16 @@
         <v>3131</v>
       </c>
       <c r="AR69" t="n">
-        <v>405</v>
+        <v>22816</v>
       </c>
       <c r="AS69" t="n">
-        <v>1623</v>
-      </c>
-      <c r="AT69" t="n">
-        <v>2433</v>
-      </c>
+        <v>19019</v>
+      </c>
+      <c r="AT69" t="inlineStr"/>
       <c r="AU69" t="n">
-        <v>4353</v>
+        <v>15400</v>
       </c>
       <c r="AV69" t="n">
-        <v>6347</v>
-      </c>
-      <c r="AW69" t="n">
-        <v>8667</v>
-      </c>
-      <c r="AX69" t="n">
-        <v>9209</v>
-      </c>
-      <c r="AY69" t="n">
-        <v>10165</v>
-      </c>
-      <c r="AZ69" t="n">
-        <v>11110</v>
-      </c>
-      <c r="BA69" t="n">
-        <v>10256</v>
-      </c>
-      <c r="BB69" t="n">
-        <v>9251</v>
-      </c>
-      <c r="BC69" t="n">
-        <v>9441</v>
-      </c>
-      <c r="BD69" t="n">
-        <v>10190</v>
-      </c>
-      <c r="BE69" t="inlineStr"/>
-      <c r="BF69" t="n">
-        <v>15400</v>
-      </c>
-      <c r="BG69" t="n">
         <v>18197</v>
       </c>
     </row>
@@ -13029,49 +10774,16 @@
         <v>-7123</v>
       </c>
       <c r="AR70" t="n">
-        <v>-1465</v>
+        <v>-38352</v>
       </c>
       <c r="AS70" t="n">
-        <v>193</v>
-      </c>
-      <c r="AT70" t="n">
-        <v>-1231</v>
-      </c>
+        <v>-36719</v>
+      </c>
+      <c r="AT70" t="inlineStr"/>
       <c r="AU70" t="n">
-        <v>-944</v>
+        <v>-36761</v>
       </c>
       <c r="AV70" t="n">
-        <v>-1452</v>
-      </c>
-      <c r="AW70" t="n">
-        <v>-1880</v>
-      </c>
-      <c r="AX70" t="n">
-        <v>-2444</v>
-      </c>
-      <c r="AY70" t="n">
-        <v>-2927</v>
-      </c>
-      <c r="AZ70" t="n">
-        <v>-3132</v>
-      </c>
-      <c r="BA70" t="n">
-        <v>-2995</v>
-      </c>
-      <c r="BB70" t="n">
-        <v>-3102</v>
-      </c>
-      <c r="BC70" t="n">
-        <v>-3412</v>
-      </c>
-      <c r="BD70" t="n">
-        <v>-4505</v>
-      </c>
-      <c r="BE70" t="inlineStr"/>
-      <c r="BF70" t="n">
-        <v>-36761</v>
-      </c>
-      <c r="BG70" t="n">
         <v>-37911</v>
       </c>
     </row>
@@ -13208,17 +10920,6 @@
       <c r="AT71" t="inlineStr"/>
       <c r="AU71" t="inlineStr"/>
       <c r="AV71" t="inlineStr"/>
-      <c r="AW71" t="inlineStr"/>
-      <c r="AX71" t="inlineStr"/>
-      <c r="AY71" t="inlineStr"/>
-      <c r="AZ71" t="inlineStr"/>
-      <c r="BA71" t="inlineStr"/>
-      <c r="BB71" t="inlineStr"/>
-      <c r="BC71" t="inlineStr"/>
-      <c r="BD71" t="inlineStr"/>
-      <c r="BE71" t="inlineStr"/>
-      <c r="BF71" t="inlineStr"/>
-      <c r="BG71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -13353,17 +11054,6 @@
       <c r="AT72" t="inlineStr"/>
       <c r="AU72" t="inlineStr"/>
       <c r="AV72" t="inlineStr"/>
-      <c r="AW72" t="inlineStr"/>
-      <c r="AX72" t="inlineStr"/>
-      <c r="AY72" t="inlineStr"/>
-      <c r="AZ72" t="inlineStr"/>
-      <c r="BA72" t="inlineStr"/>
-      <c r="BB72" t="inlineStr"/>
-      <c r="BC72" t="inlineStr"/>
-      <c r="BD72" t="inlineStr"/>
-      <c r="BE72" t="inlineStr"/>
-      <c r="BF72" t="inlineStr"/>
-      <c r="BG72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -13498,17 +11188,6 @@
       <c r="AT73" t="inlineStr"/>
       <c r="AU73" t="inlineStr"/>
       <c r="AV73" t="inlineStr"/>
-      <c r="AW73" t="inlineStr"/>
-      <c r="AX73" t="inlineStr"/>
-      <c r="AY73" t="inlineStr"/>
-      <c r="AZ73" t="inlineStr"/>
-      <c r="BA73" t="inlineStr"/>
-      <c r="BB73" t="inlineStr"/>
-      <c r="BC73" t="inlineStr"/>
-      <c r="BD73" t="inlineStr"/>
-      <c r="BE73" t="inlineStr"/>
-      <c r="BF73" t="inlineStr"/>
-      <c r="BG73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -13639,49 +11318,16 @@
         <v>18164</v>
       </c>
       <c r="AR74" t="n">
-        <v>-8148</v>
+        <v>3869</v>
       </c>
       <c r="AS74" t="n">
-        <v>-18856</v>
-      </c>
-      <c r="AT74" t="n">
-        <v>-31775</v>
-      </c>
+        <v>31534</v>
+      </c>
+      <c r="AT74" t="inlineStr"/>
       <c r="AU74" t="n">
-        <v>-30040</v>
+        <v>29536</v>
       </c>
       <c r="AV74" t="n">
-        <v>-23256</v>
-      </c>
-      <c r="AW74" t="n">
-        <v>-33714</v>
-      </c>
-      <c r="AX74" t="n">
-        <v>-31125</v>
-      </c>
-      <c r="AY74" t="n">
-        <v>-18091</v>
-      </c>
-      <c r="AZ74" t="n">
-        <v>-10180</v>
-      </c>
-      <c r="BA74" t="n">
-        <v>-7119</v>
-      </c>
-      <c r="BB74" t="n">
-        <v>-9028</v>
-      </c>
-      <c r="BC74" t="n">
-        <v>-4866</v>
-      </c>
-      <c r="BD74" t="n">
-        <v>-23051</v>
-      </c>
-      <c r="BE74" t="inlineStr"/>
-      <c r="BF74" t="n">
-        <v>29536</v>
-      </c>
-      <c r="BG74" t="n">
         <v>16006</v>
       </c>
     </row>
@@ -13814,49 +11460,16 @@
         <v>-4833</v>
       </c>
       <c r="AR75" t="n">
-        <v>0</v>
+        <v>-6730</v>
       </c>
       <c r="AS75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT75" t="n">
-        <v>0</v>
-      </c>
+        <v>-7703</v>
+      </c>
+      <c r="AT75" t="inlineStr"/>
       <c r="AU75" t="n">
-        <v>0</v>
+        <v>-3355</v>
       </c>
       <c r="AV75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE75" t="inlineStr"/>
-      <c r="BF75" t="n">
-        <v>-3355</v>
-      </c>
-      <c r="BG75" t="n">
         <v>3355</v>
       </c>
     </row>
@@ -13989,49 +11602,16 @@
         <v>-1336</v>
       </c>
       <c r="AR76" t="n">
-        <v>1</v>
+        <v>5908</v>
       </c>
       <c r="AS76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT76" t="n">
-        <v>0</v>
-      </c>
+        <v>-2405</v>
+      </c>
+      <c r="AT76" t="inlineStr"/>
       <c r="AU76" t="n">
-        <v>0</v>
+        <v>-6463</v>
       </c>
       <c r="AV76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ76" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA76" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB76" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC76" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD76" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE76" t="inlineStr"/>
-      <c r="BF76" t="n">
-        <v>-6463</v>
-      </c>
-      <c r="BG76" t="n">
         <v>-8840</v>
       </c>
     </row>
@@ -14168,17 +11748,6 @@
       <c r="AT77" t="inlineStr"/>
       <c r="AU77" t="inlineStr"/>
       <c r="AV77" t="inlineStr"/>
-      <c r="AW77" t="inlineStr"/>
-      <c r="AX77" t="inlineStr"/>
-      <c r="AY77" t="inlineStr"/>
-      <c r="AZ77" t="inlineStr"/>
-      <c r="BA77" t="inlineStr"/>
-      <c r="BB77" t="inlineStr"/>
-      <c r="BC77" t="inlineStr"/>
-      <c r="BD77" t="inlineStr"/>
-      <c r="BE77" t="inlineStr"/>
-      <c r="BF77" t="inlineStr"/>
-      <c r="BG77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -14313,17 +11882,6 @@
       <c r="AT78" t="inlineStr"/>
       <c r="AU78" t="inlineStr"/>
       <c r="AV78" t="inlineStr"/>
-      <c r="AW78" t="inlineStr"/>
-      <c r="AX78" t="inlineStr"/>
-      <c r="AY78" t="inlineStr"/>
-      <c r="AZ78" t="inlineStr"/>
-      <c r="BA78" t="inlineStr"/>
-      <c r="BB78" t="inlineStr"/>
-      <c r="BC78" t="inlineStr"/>
-      <c r="BD78" t="inlineStr"/>
-      <c r="BE78" t="inlineStr"/>
-      <c r="BF78" t="inlineStr"/>
-      <c r="BG78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -14453,48 +12011,11 @@
       <c r="AQ79" t="n">
         <v>0</v>
       </c>
-      <c r="AR79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE79" t="inlineStr"/>
-      <c r="BF79" t="inlineStr"/>
-      <c r="BG79" t="inlineStr"/>
+      <c r="AR79" t="inlineStr"/>
+      <c r="AS79" t="inlineStr"/>
+      <c r="AT79" t="inlineStr"/>
+      <c r="AU79" t="inlineStr"/>
+      <c r="AV79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -14625,49 +12146,16 @@
         <v>11995</v>
       </c>
       <c r="AR80" t="n">
-        <v>-8147</v>
+        <v>3047</v>
       </c>
       <c r="AS80" t="n">
-        <v>-18856</v>
-      </c>
-      <c r="AT80" t="n">
-        <v>-31775</v>
-      </c>
+        <v>21426</v>
+      </c>
+      <c r="AT80" t="inlineStr"/>
       <c r="AU80" t="n">
-        <v>-30040</v>
+        <v>19718</v>
       </c>
       <c r="AV80" t="n">
-        <v>-23256</v>
-      </c>
-      <c r="AW80" t="n">
-        <v>-33714</v>
-      </c>
-      <c r="AX80" t="n">
-        <v>-31125</v>
-      </c>
-      <c r="AY80" t="n">
-        <v>-18091</v>
-      </c>
-      <c r="AZ80" t="n">
-        <v>-10180</v>
-      </c>
-      <c r="BA80" t="n">
-        <v>-7119</v>
-      </c>
-      <c r="BB80" t="n">
-        <v>-9028</v>
-      </c>
-      <c r="BC80" t="n">
-        <v>-4866</v>
-      </c>
-      <c r="BD80" t="n">
-        <v>-23051</v>
-      </c>
-      <c r="BE80" t="inlineStr"/>
-      <c r="BF80" t="n">
-        <v>19718</v>
-      </c>
-      <c r="BG80" t="n">
         <v>10521</v>
       </c>
     </row>
